--- a/FileGunBasin/9 August-04 StormBasin/110 kws db table design/110 kws db table design - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/110 kws db table design/110 kws db table design - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/110 kws db table design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E17379-BDC2-134E-BA72-7ADC1C40C5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237FF6FD-BC18-8040-85B6-64EFCF9986CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{19087B09-40A4-2E45-9CCA-7BEDC5DF61D4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>⏺ CREATE TABLE kws (</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>search_volume_dfs</t>
   </si>
 </sst>
 </file>
@@ -561,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3CEFDF-4646-E244-9838-EF490CAC0BF4}">
-  <dimension ref="E1:E55"/>
+  <dimension ref="E1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,67 +692,73 @@
       </c>
     </row>
     <row r="32" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>34</v>
       </c>

--- a/FileGunBasin/9 August-04 StormBasin/110 kws db table design/110 kws db table design - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/110 kws db table design/110 kws db table design - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/110 kws db table design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237FF6FD-BC18-8040-85B6-64EFCF9986CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ADE7B0-86F7-634D-83B3-A8480BFA1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{19087B09-40A4-2E45-9CCA-7BEDC5DF61D4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>⏺ CREATE TABLE kws (</t>
   </si>
@@ -104,9 +104,6 @@
     <t xml:space="preserve">  );</t>
   </si>
   <si>
-    <t>kw_id</t>
-  </si>
-  <si>
     <t>keyword_datum</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>search_volume</t>
   </si>
   <si>
-    <t>competition_level</t>
-  </si>
-  <si>
-    <t>cost_per_click</t>
-  </si>
-  <si>
     <t>trend_direction</t>
   </si>
   <si>
@@ -167,7 +158,79 @@
     <t>cpc</t>
   </si>
   <si>
-    <t>search_volume_dfs</t>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>keyword_id</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>will be like 1.20  ,   0.23 , etc as numbers</t>
+  </si>
+  <si>
+    <t>please create sql that i can run in supabase to do the following</t>
+  </si>
+  <si>
+    <t>create new db table named</t>
+  </si>
+  <si>
+    <t>with these fields:</t>
+  </si>
+  <si>
+    <t>is_external</t>
+  </si>
+  <si>
+    <t>is_internal</t>
+  </si>
+  <si>
+    <t>modify add new sites functionality or give it the ability to specify this flag before entering sites</t>
+  </si>
+  <si>
+    <t>in existing db table sitespren</t>
+  </si>
+  <si>
+    <t>create 2 new boolean db fields</t>
+  </si>
+  <si>
+    <t>default false</t>
+  </si>
+  <si>
+    <t>keywordsglobal</t>
+  </si>
+  <si>
+    <t>keywordsven</t>
+  </si>
+  <si>
+    <t>keywords_hub</t>
+  </si>
+  <si>
+    <t>pest control tuscaloosa</t>
+  </si>
+  <si>
+    <t>keyword_location</t>
+  </si>
+  <si>
+    <t>new field needed</t>
+  </si>
+  <si>
+    <t>keyword_device</t>
+  </si>
+  <si>
+    <t>https://docs.dataforseo.com/v3/keywords_data/overview/?bash</t>
+  </si>
+  <si>
+    <t>choose table name</t>
+  </si>
+  <si>
+    <t>keywordshub</t>
   </si>
 </sst>
 </file>
@@ -197,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,10 +298,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3CEFDF-4646-E244-9838-EF490CAC0BF4}">
-  <dimension ref="E1:F55"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,100 +767,116 @@
       </c>
     </row>
     <row r="32" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
-        <v>39</v>
+    <row r="52" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.2">
@@ -793,9 +884,152 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>41</v>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="5:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="101" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/110 kws db table design/110 kws db table design - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/110 kws db table design/110 kws db table design - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/110 kws db table design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ADE7B0-86F7-634D-83B3-A8480BFA1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A57095-AF8C-564F-BE0B-404F40D8941E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{19087B09-40A4-2E45-9CCA-7BEDC5DF61D4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>⏺ CREATE TABLE kws (</t>
   </si>
@@ -231,6 +231,45 @@
   </si>
   <si>
     <t>keywordshub</t>
+  </si>
+  <si>
+    <t>db schema for money tree</t>
+  </si>
+  <si>
+    <t>moneytree_keywords</t>
+  </si>
+  <si>
+    <t>fk to industries.industry_id</t>
+  </si>
+  <si>
+    <t>rel_industry_id</t>
+  </si>
+  <si>
+    <t>mkw_packet_id</t>
+  </si>
+  <si>
+    <t>mkw_global_id</t>
+  </si>
+  <si>
+    <t>mkw_datum</t>
+  </si>
+  <si>
+    <t>integer (id that is sequential but always starts from 1 for every group of rows that shares same value in field rel_industry_id</t>
+  </si>
+  <si>
+    <t>mtkw_global_id</t>
+  </si>
+  <si>
+    <t>mtkw_datum</t>
+  </si>
+  <si>
+    <t>mtkw_packet_id</t>
+  </si>
+  <si>
+    <t>create new db table</t>
+  </si>
+  <si>
+    <t>with these db fields</t>
   </si>
 </sst>
 </file>
@@ -642,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3CEFDF-4646-E244-9838-EF490CAC0BF4}">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,6 +1071,102 @@
         <v>38</v>
       </c>
     </row>
+    <row r="128" spans="5:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
+        <v>70</v>
+      </c>
+      <c r="F139" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E140" t="s">
+        <v>71</v>
+      </c>
+      <c r="F140" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>68</v>
+      </c>
+      <c r="F141" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E142" t="s">
+        <v>69</v>
+      </c>
+      <c r="F142" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>73</v>
+      </c>
+      <c r="F153" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
+        <v>74</v>
+      </c>
+      <c r="F154" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E155" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>75</v>
+      </c>
+      <c r="F156" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
